--- a/walla/walla.xlsx
+++ b/walla/walla.xlsx
@@ -13,6 +13,20 @@
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>sdfsf</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,15 +356,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1">
         <v>2</v>
       </c>
@@ -358,19 +372,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="B2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="B3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="B4">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
